--- a/Final.ESSData.xlsx
+++ b/Final.ESSData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Historical data\Final Out\final data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E905E8-BFF5-41ED-958C-224D36902686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5692FA-CE4A-4561-B250-3C91E26730D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1575" windowWidth="19275" windowHeight="13320" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19275" windowHeight="13320" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
     <sheet name="P19" sheetId="19" r:id="rId19"/>
     <sheet name="P20" sheetId="20" r:id="rId20"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId21"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="85">
   <si>
     <t>Time</t>
   </si>
@@ -295,21 +298,12 @@
   <si>
     <t>SOC P20</t>
   </si>
-  <si>
-    <t>P_charge</t>
-  </si>
-  <si>
-    <t>P_discharge</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,12 +315,6 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,16 +352,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2687,7 +2672,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P13'!$B$2</c:f>
+              <c:f>[1]Sheet1!$G$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2710,7 +2695,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P13'!$B$3:$B$26</c:f>
+              <c:f>'P13'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2801,7 +2786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P13'!$C$2</c:f>
+              <c:f>[1]Sheet1!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2824,7 +2809,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P13'!$C$3:$C$26</c:f>
+              <c:f>'P13'!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2915,7 +2900,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P13'!$D$2</c:f>
+              <c:f>[1]Sheet1!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2938,7 +2923,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P13'!$D$3:$D$26</c:f>
+              <c:f>'P13'!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7200,12 +7185,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P20'!$B$2</c:f>
+              <c:f>[1]Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P_charge</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7223,7 +7205,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P20'!$B$3:$B$26</c:f>
+              <c:f>'P20'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7314,12 +7296,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P20'!$C$2</c:f>
+              <c:f>[1]Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P_discharge</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7337,7 +7316,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P20'!$C$3:$C$26</c:f>
+              <c:f>'P20'!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7428,12 +7407,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P20'!$D$2</c:f>
+              <c:f>[1]Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SOC</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7451,7 +7427,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P20'!$D$3:$D$26</c:f>
+              <c:f>'P20'!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -23625,6 +23601,31 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="18">
+          <cell r="G18" t="str">
+            <v>P_charge</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>P_discharge</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>SOC</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25395,10 +25396,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25422,18 +25423,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
+      <c r="B2">
+        <v>0.45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.84099998831748968</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -25441,13 +25442,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.45</v>
+        <v>0.44992356999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.84099998831748968</v>
+        <v>1.281925091743469</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -25455,13 +25456,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.44992356999999999</v>
+        <v>0.44994888</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.281925091743469</v>
+        <v>1.7228749912977219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -25469,13 +25470,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.44994888</v>
+        <v>7.8698988471712375E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.7228749912977219</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -25483,7 +25484,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7.8698988471712375E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -25514,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.4293536</v>
       </c>
       <c r="D8">
-        <v>1.8</v>
+        <v>1.3618840869592159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -25525,13 +25526,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.44705705412324892</v>
       </c>
       <c r="C9">
-        <v>-0.4293536</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.3618840869592159</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -25539,7 +25540,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.44705705412324892</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -25584,10 +25585,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.4474204</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>1.3434485832039189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -25595,13 +25596,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.44841644000000003</v>
       </c>
       <c r="C14">
-        <v>-0.4474204</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.3434485832039189</v>
+        <v>1.78289669604934</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -25609,13 +25610,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.44841644000000003</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.44999159999999999</v>
       </c>
       <c r="D15">
-        <v>1.78289669604934</v>
+        <v>1.3237215801039519</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -25623,13 +25624,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.4486289</v>
       </c>
       <c r="C16">
-        <v>-0.44999159999999999</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.3237215801039519</v>
+        <v>1.7633779044905491</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -25637,13 +25638,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4486289</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.44999813999999999</v>
       </c>
       <c r="D17">
-        <v>1.7633779044905491</v>
+        <v>1.3041961286384229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -25654,10 +25655,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.44999813999999999</v>
+        <v>-0.44945576999999998</v>
       </c>
       <c r="D18">
-        <v>1.3041961286384229</v>
+        <v>0.84556779407725058</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -25668,10 +25669,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.44945576999999998</v>
+        <v>-0.44999393999999998</v>
       </c>
       <c r="D19">
-        <v>0.84556779407725058</v>
+        <v>0.38639030611028491</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -25682,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.44999393999999998</v>
+        <v>-8.4662499988079218E-2</v>
       </c>
       <c r="D20">
-        <v>0.38639030611028491</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -25696,7 +25697,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-8.4662499988079218E-2</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0.3</v>
@@ -25749,23 +25750,12 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.45</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
         <v>0.84099998831748968</v>
       </c>
     </row>
@@ -28376,10 +28366,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28403,18 +28393,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
+      <c r="B2">
+        <v>0.45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.84099998831748968</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -28422,13 +28412,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.45</v>
+        <v>0.44515216000000002</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.84099998831748968</v>
+        <v>1.2772491085529329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -28436,13 +28426,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.44515216000000002</v>
+        <v>0.44803680000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.2772491085529329</v>
+        <v>1.7163251626491549</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -28450,13 +28440,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.44803680000000001</v>
+        <v>8.5382487092699341E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.7163251626491549</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -28464,7 +28454,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8.5382487092699341E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -28621,10 +28611,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-6.2854220000000002E-2</v>
       </c>
       <c r="D17">
-        <v>1.8</v>
+        <v>1.7358630378027351</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -28635,10 +28625,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-6.2854220000000002E-2</v>
+        <v>-0.39853725000000001</v>
       </c>
       <c r="D18">
-        <v>1.7358630378027351</v>
+        <v>1.329192376197601</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -28649,10 +28639,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.39853725000000001</v>
+        <v>-0.4389555</v>
       </c>
       <c r="D19">
-        <v>1.329192376197601</v>
+        <v>0.88127861515599848</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -28663,10 +28653,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.4389555</v>
+        <v>-0.43753703999999999</v>
       </c>
       <c r="D20">
-        <v>0.88127861515599848</v>
+        <v>0.43481224343484748</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -28677,10 +28667,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-0.43753703999999999</v>
+        <v>-0.13211599856615061</v>
       </c>
       <c r="D21">
-        <v>0.43481224343484748</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -28691,7 +28681,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.13211599856615061</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0.3</v>
@@ -28716,13 +28706,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.12351876000000001</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3</v>
+        <v>0.42104838237166398</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -28730,23 +28720,12 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.12351876000000001</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.42104838237166398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.45</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
         <v>0.84099998831748968</v>
       </c>
     </row>
